--- a/biology/Zoologie/Astérope_(papillon)/Astérope_(papillon).xlsx
+++ b/biology/Zoologie/Astérope_(papillon)/Astérope_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ast%C3%A9rope_(papillon)</t>
+          <t>Astérope_(papillon)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ypthima asterope
 L'Astérope (Ypthima asterope) est une espèce de lépidoptères de la famille des Nymphalidae et de la sous-famille des Satyrinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ast%C3%A9rope_(papillon)</t>
+          <t>Astérope_(papillon)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Ypthima asterope a été décrite par Klug en 1832.
-Synonymes : Hipparchia asterope Klug, 1832 (protonyme) ; Ypthima alemola Swinhoe, 1885 ; Ypthima complexina Swinhoe, 1886[1].
-Sous-espèces
-Ypthima asterope asterope ; présent en Afrique, Arabie Saoudite et Inde.
-Ypthima asterope hereroica van Son, 1955 ; présent dans le sud-ouest de l'Afrique.
-Ypthima asterope mahratta Moore, 1884 ; présent dans le nord-ouest de l'Inde.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ypthima asterope a été décrite par Klug en 1832.
+Synonymes : Hipparchia asterope Klug, 1832 (protonyme) ; Ypthima alemola Swinhoe, 1885 ; Ypthima complexina Swinhoe, 1886.
+</t>
         </is>
       </c>
     </row>
@@ -529,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ast%C3%A9rope_(papillon)</t>
+          <t>Astérope_(papillon)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,43 +555,85 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ypthima asterope asterope ; présent en Afrique, Arabie Saoudite et Inde.
+Ypthima asterope hereroica van Son, 1955 ; présent dans le sud-ouest de l'Afrique.
+Ypthima asterope mahratta Moore, 1884 ; présent dans le nord-ouest de l'Inde.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Astérope_(papillon)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ast%C3%A9rope_(papillon)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>en français : l'Astérope[2],[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>en français : l'Astérope,
 en anglais : common threering ou African ringlet
 en grec : Αστερόπη
 en turc : Karagöz</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ast%C3%A9rope_(papillon)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ast%C3%A9rope_(papillon)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Astérope_(papillon)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ast%C3%A9rope_(papillon)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Astérope est un papillon de couleur gris à reflets mordorés avec à l'apex des antérieures un gros ocelle noir doublement pupillé de bleu cerné d'orange et situé dans une tache plus claire, et aux postérieures un ocelle noir pupillé de bleu cerné d'orange en position anale.
 Le verso est gris mordoré strié de gris argenté avec le même gros ocelle noir doublement pupillé de bleu cerné d'orange à l'apex des antérieures et
@@ -589,47 +642,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ast%C3%A9rope_(papillon)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ast%C3%A9rope_(papillon)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Astérope vole en plusieurs générations d'avril à octobre[4].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Poa, Ehrharta erecta et Cynodon dactylon[1],[5].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ast%C3%A9rope_(papillon)</t>
+          <t>Astérope_(papillon)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,16 +663,162 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Astérope vole en plusieurs générations d'avril à octobre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Astérope_(papillon)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ast%C3%A9rope_(papillon)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Poa, Ehrharta erecta et Cynodon dactylon,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Astérope_(papillon)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ast%C3%A9rope_(papillon)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Astérope est présent dans tout le Moyen-Orient en Turquie, Liban, Syrie, Irak, Iran, au Balouchistan, en Inde, en Afrique tropicale et à Madagascar et en Europe, uniquement dans les îles Égéennes grecques de Samos, Rhodes, Simi et Kastelórizo[4],[1].
-Biotope
-L'Astérope réside dans des lieux caillouteux herbus comme le lit des rivières à sec.
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Astérope est présent dans tout le Moyen-Orient en Turquie, Liban, Syrie, Irak, Iran, au Balouchistan, en Inde, en Afrique tropicale et à Madagascar et en Europe, uniquement dans les îles Égéennes grecques de Samos, Rhodes, Simi et Kastelórizo,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Astérope_(papillon)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ast%C3%A9rope_(papillon)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Astérope réside dans des lieux caillouteux herbus comme le lit des rivières à sec.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Astérope_(papillon)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ast%C3%A9rope_(papillon)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
